--- a/content/drafts/entitats/Codis_Territori_Diputacions.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Diputacions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\03.Canigo\Versio_20191014\03.Draft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89681CE0-52E8-4EDB-9952-3F24943AD4C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57683200-F4CF-4A30-97C4-98A0EBABA570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="15576" windowHeight="11928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diputacions" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Codi</t>
   </si>
@@ -82,13 +82,31 @@
   </si>
   <si>
     <t>Codi diputació</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>No consta</t>
+  </si>
+  <si>
+    <t>Altres/Diversos</t>
+  </si>
+  <si>
+    <t>9999999998</t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +127,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,11 +149,39 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -137,11 +190,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -268,7 +328,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C7" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
@@ -541,19 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="2"/>
+    <col min="4" max="4" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +633,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -585,7 +645,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -597,7 +657,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -609,7 +669,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -620,12 +680,34 @@
         <v>15</v>
       </c>
       <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:C7 A8:C9" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -634,24 +716,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -783,31 +847,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -823,4 +881,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/content/drafts/entitats/Codis_Territori_Diputacions.xlsx
+++ b/content/drafts/entitats/Codis_Territori_Diputacions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\01.Cataleg_inicial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\02.Projecte_DadesRef\_____c6\01.CATaleg\07.Proposta_noves_ER\04.Cataleg_Entitats_Modelades.v03\06.Canvis_Canigo_Draft_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57683200-F4CF-4A30-97C4-98A0EBABA570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C03DAE-5D1F-4312-9313-FE3899D07949}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Codi</t>
   </si>
@@ -54,18 +54,6 @@
     <t>Tarragona</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>Codis_Territori_Diputacions</t>
   </si>
   <si>
@@ -79,15 +67,6 @@
   </si>
   <si>
     <t>8004330008</t>
-  </si>
-  <si>
-    <t>Codi diputació</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
   </si>
   <si>
     <t>No consta</t>
@@ -207,21 +186,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Hoja2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
@@ -328,11 +293,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="1" dataCellStyle="Normal_Hoja2"/>
-    <tableColumn id="3" xr3:uid="{4B13E79D-A468-48C9-908A-8A7A47302148}" name="Codi diputació" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A3:B9" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Codi" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nom" dataDxfId="0" dataCellStyle="Normal_Hoja2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -601,113 +565,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.453125" style="2"/>
+    <col min="2" max="2" width="18" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.453125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A4:C7 A8:C9" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B9" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -716,6 +659,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -847,25 +808,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCCF087E-4840-42B0-AE1E-9DBAC680D690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -881,28 +848,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6272B2A1-B407-4DF2-A2FE-9044F0D4B8B6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF65D252-1908-44E2-BB35-08282169E652}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>